--- a/simple2fjsp-min/only_min-PDR.xlsx
+++ b/simple2fjsp-min/only_min-PDR.xlsx
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1774,54 +1774,58 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:14">
       <c r="B12" s="1">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B12:M12" si="1">AVERAGE(B2:B11)</f>
         <v>236.4</v>
       </c>
       <c r="C12" s="1">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="1"/>
         <v>205.3</v>
       </c>
       <c r="D12" s="1">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="1"/>
         <v>214.6</v>
       </c>
       <c r="E12" s="1">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="F12" s="1">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="1"/>
         <v>193.9</v>
       </c>
       <c r="G12" s="1">
-        <f>AVERAGE(G2:G11)</f>
+        <f t="shared" si="1"/>
         <v>201.7</v>
       </c>
       <c r="H12" s="1">
-        <f>AVERAGE(H2:H11)</f>
+        <f t="shared" si="1"/>
         <v>240.6</v>
       </c>
       <c r="I12" s="1">
-        <f>AVERAGE(I2:I11)</f>
+        <f t="shared" si="1"/>
         <v>246.6</v>
       </c>
       <c r="J12" s="1">
-        <f>AVERAGE(J2:J11)</f>
+        <f t="shared" si="1"/>
         <v>232.6</v>
       </c>
       <c r="K12" s="1">
-        <f>AVERAGE(K2:K11)</f>
+        <f t="shared" si="1"/>
         <v>245.3</v>
       </c>
       <c r="L12" s="1">
-        <f>AVERAGE(L2:L11)</f>
+        <f t="shared" si="1"/>
         <v>249.5</v>
       </c>
       <c r="M12" s="1">
-        <f>AVERAGE(M2:M11)</f>
+        <f t="shared" si="1"/>
         <v>249.9</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGE(N2:N11)</f>
+        <v>191.9</v>
       </c>
     </row>
   </sheetData>
